--- a/outputs/ML_Results/mode_MNLR/Nimes.xlsx
+++ b/outputs/ML_Results/mode_MNLR/Nimes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ14" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ18" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ15" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ89" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ5" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ59222807" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01159881" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ03456673" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ06029157" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ08510968" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ11013934" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ13473468" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ15940846" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ18432811" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,12 +485,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-17.76289790203747</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.98047290296727</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-25.56239443150166</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9992280816735387</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0108991323147048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.999931125150106</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,12 +510,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-0.01856505278525246</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4192041906977403</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.4719641856739419</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9713456220638096</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.007518123882543112</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04441274421013626</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -511,12 +535,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-18.33260105711531</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6227821485250749</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.310970927024</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9981202747986555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1229893876494451</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.01394953738481155</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -524,12 +560,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.2759340817219508</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4874902141921262</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1232724442976331</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6574649003121977</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.006953802742871269</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.617711696237216</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -537,12 +585,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1.19082575924077</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2712635750874319</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-26.44155463507868</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1904829483219467</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6321769995471032</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9999145737815054</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,12 +610,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.7959943941554236</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2708624233605957</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.6524803649085936</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1338640384168113</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1641276197682154</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0510794641176263</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -563,12 +635,24 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>1.536817674871675</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8494423920802119</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04397891662375506</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04720660786092415</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.008926385462264557</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.915255469041087</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -576,12 +660,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0.2068742359629493</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.133119108669742</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1328441405064395</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6414823459978776</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2991002749584165</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4671847974784672</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -589,12 +685,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2.558584513515946</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.205560198886397</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.358284066633136</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01926546553791638</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.055220848728867e-09</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0002766897479140501</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -602,12 +710,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0.6043913291774332</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.328032225007482</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.809421451728809</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6842033636240701</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.584030612923859e-05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0002086955103458737</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -615,12 +735,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2.466189018357301</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6796811458075647</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.586086272953447</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.03135421265791884</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.001847356306042621</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.355827779138238e-05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -628,12 +760,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>3.307634487443437</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5379535216661459</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.607565233427807</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.003419664054853381</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0290749829491791</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0001881048939729521</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -641,12 +785,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.8286913069859316</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1928981016786838</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.685115019367326</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5733015927868541</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4837079571818454</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.952047386947277e-05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -654,12 +810,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-0.005767467516387867</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4368341540762564</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.11539352083408</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9937130392983712</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.08805248189059615</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.001976370153777041</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -667,12 +835,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-11.27588969640152</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.575116311385502</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.179836556125997</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9796416611000583</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.852906201623459e-09</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01025763562995156</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -680,12 +860,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-63.89584820441925</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.225885179690627</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.1659989148699538</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999999999997043</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003092174899394391</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8360071534452267</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -693,12 +885,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1.930769594237401</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.342330799449395</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.109916740428186</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02109392019753757</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.74843629642215e-06</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01574936826386517</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -706,12 +910,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-15.86761785609473</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2707768998158613</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.227269858281738</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9968144359573562</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5593368138229728</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.04605541808009783</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -719,12 +935,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>2.592765584122243</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6962487896328458</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.396869354443354</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1881325037166744</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1768996085433862</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0002039892806379084</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -732,12 +960,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>2.637837767381093</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4500865404736044</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.628667312093156</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01165866132364008</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4420632434748397</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01709900424196433</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -745,12 +985,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0.4018863939391643</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5097590664166473</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8702765302052462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6290635349723532</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03418291289900761</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02953239465944981</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -758,12 +1010,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>15.09996602275802</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2553450047573792</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.06058117720861</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9993438040708584</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7495223580468582</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9999324772265926</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -771,12 +1035,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>15.23439352493404</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.3746159360527531</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22.51140919385219</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9993379622867692</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6551690760625166</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9999393456691336</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -784,12 +1060,24 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>-6.132184560801023</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7639528704416961</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.03795900355323</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9999624743728494</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3553300226431245</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9999325381793651</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -797,220 +1085,399 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>17.16253631261311</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1893236334211787</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24.92177059089136</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9992541714245363</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7989408457433913</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9999328512353068</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>17.52808774739428</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1384342247577956</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24.8375613858706</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9992382857395677</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8536941912810591</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9999330781270543</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.14229993855688</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007749528295910313</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2827408119070614</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.007045558254717024</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.95082405481009</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1015987494612009</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.004076704737853874</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.006547322224332143</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.005373283821534006</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8248626141617351</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3229431556462959</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5475255892319844</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0005166239971357115</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.001539306166415599</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.346782263751216e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0001025241521596718</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7.279329911119404e-102</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.002154654864761418</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.874822921555751</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.388246843560089</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.447996932676708</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.003100876460076802</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.153191456395753e-22</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.161995229994176e-37</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4092380651962846</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.06608405655511788</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.08737894230116001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.005538728495002291</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1899682044408547</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1965936944103301</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7.699963582783075e-05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-3.359259770240333e-07</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9.480222839377345e-05</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3355155950386421</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9902539928515668</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.007631348985889187</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1976597304306783</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.08023792467505828</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.2254703843417518</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5150494619867306</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4350712890059828</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.08075011744052955</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.568446855078398</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.3141844028475163</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2118098221572241</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2643412865616791</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02189936074375662</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2409761627719152</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5.760470721068967e-08</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.067176063175451e-07</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.002618002011021e-08</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6186653750940204</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.808400274644002e-06</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1733089764399359</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.006068421917207656</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.004468116196886313</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.01220067450995789</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7302623690956376</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.4144331718111404</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.1050162553196493</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.04845665768865174</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.01084956139455216</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.01596149354527924</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1598464555615339</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2003461298101599</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.06590782188083358</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10.11061059242464</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-4.499671435119931</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-2.217532085707961</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3162641023492292</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3239291531232437</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.7521548228008286</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-2.409842017292951</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1270509899667447</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4537881599450927</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1985784610925687</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8381006260002533</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5883846379074065</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>-2.611266695228566</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.150880063151573</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.137268538993933</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2131616793397789</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1452581483572606</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9021619658031649</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1023,7 +1490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1396,7 +1863,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1409,7 +1876,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1422,7 +1889,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1435,7 +1902,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -1448,7 +1915,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -1461,7 +1928,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -1474,7 +1941,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -1487,7 +1954,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1500,7 +1967,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1513,7 +1980,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1526,7 +1993,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1539,7 +2006,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1552,7 +2019,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1565,7 +2032,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1578,7 +2045,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1587,19 +2054,6 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1612,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1663,12 +2117,24 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>-15.75896529877646</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.244419056615218</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-15.39016908561028</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9889624959177556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03620987594699437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9912973178466651</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1676,12 +2142,24 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>-0.08491840360786289</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2408751425823554</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.3606772491345808</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8686241743138441</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1276868180029685</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1101707798938657</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1689,12 +2167,24 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>-15.38477108041165</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.6686153102414916</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.049985970415831</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9939584510007078</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1039014949590366</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02623280616735526</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1702,12 +2192,24 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.2688290876004574</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3521322061400909</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1202915097920376</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6650488769521405</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.04684210941592878</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6159885264770173</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1715,12 +2217,24 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1.252009427479915</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.5390845562963389</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-7.355240541481777</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1296201997781621</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3322323860622342</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6718673991801606</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1728,12 +2242,24 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.7993891419862875</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1240080206039803</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.7446808757477266</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1320284367435333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5281702454087032</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02045633308706571</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1741,12 +2267,24 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0.759237294755404</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6163268593987269</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.135311322104002</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4214200082923959</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07086722209996027</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7448782564351398</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1754,12 +2292,24 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0.3746031170291186</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2165950181695581</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.03544009473699383</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3898741956024724</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.09275218485529575</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8423445561411511</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1767,12 +2317,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2.216428258880796</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.469585731837888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.470116328396398</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.04382858605262125</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.005371540231454e-12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.900857465005809e-05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1780,12 +2342,24 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0.5873584410289745</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.32628519830622</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.533105649527644</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6844599483048805</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.070246468538367e-05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0006382872014489658</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1793,12 +2367,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>2.289842289468801</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8456360824982302</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.403345920114847</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.04323311604781124</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0001605880010458712</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0001760562046351538</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1806,12 +2392,24 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>3.422379887684454</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7823889262226885</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.296443912638374</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002624535932693786</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.001559519671794568</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001273340103680362</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1819,12 +2417,24 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.5084032381244814</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3739803089585946</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.390720290598749</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7276487535825509</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1698503639921182</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0002705687403835434</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1832,12 +2442,24 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>-0.2576851170688026</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2685274291294414</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7881866916589555</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7368653243126679</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2950213813060312</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.02962177978290423</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1845,12 +2467,24 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>-18.71262296406773</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.574064036693184</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9392211052440261</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9993771668734404</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.687384438465055e-09</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02978809817345199</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1858,12 +2492,24 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>-60.52452456963713</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.046426553277121</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.116225252833678</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9999999999983498</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01237952341485368</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1997271651433177</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1871,12 +2517,24 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2.170850530786568</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.459564275195205</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7598769794173776</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.008986049675067614</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.230653488582147e-07</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.08062395404102238</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1884,12 +2542,24 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>-20.02673353292543</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3535507581280602</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.117629181339535</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9994866772577514</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4592674134889423</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.06081583874337823</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1897,12 +2567,24 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>2.664746621774594</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.623752502552037</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.137102074497685</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.04665121179917058</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.215441553344207</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0004277982589439085</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1910,12 +2592,24 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>2.185955683165739</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2468450783794809</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.333742519443471</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.03776274041311502</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6539216730861801</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03119399529084568</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1923,12 +2617,24 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0.4530380584840713</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6787683044740576</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8562139429222937</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5944096351852934</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.005253637632495235</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02115156163347217</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1936,12 +2642,24 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>9.451298169841699</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7942805672542443</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14.64472415729461</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9933801972779941</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3258194051115186</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9917188235141897</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1949,12 +2667,24 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>9.286361618020926</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2028131778045351</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12.3072450259841</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9934957181636466</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8097526334526886</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9930405651994715</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1962,12 +2692,24 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>-10.43125531929071</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.200582859278768</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14.74156732472841</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9998611422606268</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.14996498293814</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9916640636845746</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1975,220 +2717,399 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>11.68588785864032</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7076086845189524</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.46173183210234</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9918151078338505</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.348920065158115</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9918222966320781</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11.83755016026429</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6386496710724636</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14.39974474615401</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9917088862313248</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4024123792410601</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9918573474432578</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.551514415855118</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1469456964111787</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3609573363297047</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0008925846413910609</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2444130169667154</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03328455854883069</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.009560087115645407</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.008649409604804851</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.004477800171218797</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5915636593286445</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1947283285006743</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6085189001508025</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0005082665153561524</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.001566403558086314</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.926357455969537e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0001240298923375569</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.106705411358199e-102</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02328120529217535</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.768837114657272</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.421869570187756</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.214085556738496</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.63505248291241e-06</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.635605058596655e-22</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.150759419478569e-34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.2987879412777953</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.09152093383672756</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1214792278316185</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.04534105492150205</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.06664615040721307</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.06016459800533667</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2.429464892007685e-05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.579622175226246e-06</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.065008388523315e-05</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7498112871552035</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9250698835265939</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.07722599799863697</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3674745504888255</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05016435941692556</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.2031863611416247</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2366546782622777</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6249657068267869</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1068932245527894</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.2985425310822947</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.3701150754144545</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1945081430738093</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4870568055217576</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.006539637828635574</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2668276873295438</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6.726199227795669e-08</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.924735782657398e-07</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.092473795711336e-07</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.548128479986924</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.603528336258268e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.08498264384532905</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.001035052332577216</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.004234009038328084</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.006879363353986975</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9436808207113705</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.4466171117281418</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3530265785512176</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.009240453462009466</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.008429339799867657</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.01374294023829286</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6521994215666049</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3319608831124314</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.128732646020829</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>18.07786102342166</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.248887322558411</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-6.747553229546519</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.09026301113814317</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7860795889962058</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3465607056410325</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2.409679628687863</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.06903680058558295</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3110960039358618</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2255939898674432</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9100682571913925</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6954989619363264</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>-0.3119037788393398</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.1839874076587</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2601618686511398</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8884043582343431</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1374892613329659</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8102211315081751</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2201,7 +3122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2574,7 +3495,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -2587,7 +3508,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -2600,7 +3521,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -2613,7 +3534,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2626,7 +3547,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -2639,7 +3560,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2652,7 +3573,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -2665,7 +3586,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -2678,7 +3599,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -2691,7 +3612,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2704,7 +3625,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -2717,7 +3638,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -2730,7 +3651,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -2743,7 +3664,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -2756,7 +3677,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -2765,19 +3686,6 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2790,7 +3698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2842,22 +3750,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-28.47372252694897</v>
+        <v>-15.04768546970855</v>
       </c>
       <c r="C2" t="n">
-        <v>3.224324027436055</v>
+        <v>3.300810745112993</v>
       </c>
       <c r="D2" t="n">
-        <v>-41.97900557490762</v>
+        <v>-14.68776712269797</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999921355448675</v>
+        <v>0.9967744662441791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03388239013497905</v>
+        <v>0.02944271924965303</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999845585306784</v>
+        <v>0.9886694582851659</v>
       </c>
     </row>
     <row r="3">
@@ -2867,22 +3775,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1024376998069125</v>
+        <v>-0.01626289140724893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2196843505440421</v>
+        <v>0.221517532096697</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6425710950797399</v>
+        <v>-0.6370032417937181</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8447850027890382</v>
+        <v>0.975050524957762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1614470288808044</v>
+        <v>0.1574955829479636</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005454382878634109</v>
+        <v>0.005781252147916873</v>
       </c>
     </row>
     <row r="4">
@@ -2892,22 +3800,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-11.58269523147482</v>
+        <v>-11.36888442916537</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7094232644907262</v>
+        <v>-0.7133361609999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.42537107948929</v>
+        <v>-2.424995802875875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9673847405263742</v>
+        <v>0.9647069483998099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09683460542256379</v>
+        <v>0.09265226692973125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01026210812386861</v>
+        <v>0.01009797622512574</v>
       </c>
     </row>
     <row r="5">
@@ -2917,22 +3825,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1841280160306543</v>
+        <v>0.1607763347287207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3802395328764038</v>
+        <v>0.3803613190499236</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02043640285707783</v>
+        <v>-0.02001148780909087</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7932012055025446</v>
+        <v>0.8181160411455124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03314275303348936</v>
+        <v>0.0328222359055457</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9320824658442401</v>
+        <v>0.9334867654810973</v>
       </c>
     </row>
     <row r="6">
@@ -2942,22 +3850,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.340374104177386</v>
+        <v>1.066751127007868</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6335929134622632</v>
+        <v>-0.5535174864274196</v>
       </c>
       <c r="D6" t="n">
-        <v>-12.93057952805561</v>
+        <v>-15.23160580530694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1111733175305477</v>
+        <v>0.2046594441222205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2539393251151281</v>
+        <v>0.3197372591638671</v>
       </c>
       <c r="G6" t="n">
-        <v>0.957674195635502</v>
+        <v>0.9844941371330945</v>
       </c>
     </row>
     <row r="7">
@@ -2967,22 +3875,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9421574716581598</v>
+        <v>0.9285256218784474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1350454370284628</v>
+        <v>0.1378796244297659</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6007119303065255</v>
+        <v>-0.6032494697121167</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07442225081236468</v>
+        <v>0.07736065461132698</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4923902302280201</v>
+        <v>0.4821572827824279</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06178451680303862</v>
+        <v>0.06049374540435559</v>
       </c>
     </row>
     <row r="8">
@@ -2992,22 +3900,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.793464220415977</v>
+        <v>1.699632087625352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7739903019127906</v>
+        <v>0.8124791713541401</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0551741806035275</v>
+        <v>-0.04988539458299795</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03361429941584313</v>
+        <v>0.03554749887973425</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02171474801218496</v>
+        <v>0.01557222337129296</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8944571587642258</v>
+        <v>0.9044407247786542</v>
       </c>
     </row>
     <row r="9">
@@ -3017,22 +3925,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5286435879176145</v>
+        <v>0.4067617259643202</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1875924804191063</v>
+        <v>-0.1917407932375159</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005428337155311107</v>
+        <v>-0.007112906714264794</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2639034232709759</v>
+        <v>0.3788302959253702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.142999280618842</v>
+        <v>0.1338221506389641</v>
       </c>
       <c r="G9" t="n">
-        <v>0.975809648182386</v>
+        <v>0.968303060679928</v>
       </c>
     </row>
     <row r="10">
@@ -3042,22 +3950,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.059410645232063</v>
+        <v>2.137660538219542</v>
       </c>
       <c r="C10" t="n">
-        <v>1.193235121241112</v>
+        <v>1.199347354285847</v>
       </c>
       <c r="D10" t="n">
-        <v>1.45512808674612</v>
+        <v>1.442636015460213</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06295203100649618</v>
+        <v>0.05138182843369545</v>
       </c>
       <c r="F10" t="n">
-        <v>1.028551935846104e-08</v>
+        <v>8.432541343802317e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>5.905753816635134e-05</v>
+        <v>6.591055202857255e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3067,22 +3975,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.314511938956139</v>
+        <v>1.275793354300802</v>
       </c>
       <c r="C11" t="n">
-        <v>1.184593474858899</v>
+        <v>1.203682172120495</v>
       </c>
       <c r="D11" t="n">
-        <v>1.685024817359569</v>
+        <v>1.672070226447246</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3832332929813164</v>
+        <v>0.3931281315275219</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004257182200972767</v>
+        <v>0.0003383290488054628</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002388038452691166</v>
+        <v>0.0002561363371977032</v>
       </c>
     </row>
     <row r="12">
@@ -3092,22 +4000,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.366336680365697</v>
+        <v>2.431138736161441</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7363708486358512</v>
+        <v>0.7528553903807548</v>
       </c>
       <c r="D12" t="n">
-        <v>1.597336924134986</v>
+        <v>1.586719122786258</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03809094842238513</v>
+        <v>0.03133433742874429</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0008334778592690933</v>
+        <v>0.000622272166611203</v>
       </c>
       <c r="G12" t="n">
-        <v>3.609012683242979e-05</v>
+        <v>3.952318633489502e-05</v>
       </c>
     </row>
     <row r="13">
@@ -3117,22 +4025,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.04225525594283</v>
+        <v>3.062870364722202</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4873752297599867</v>
+        <v>0.4950248104407801</v>
       </c>
       <c r="D13" t="n">
-        <v>1.815184473078581</v>
+        <v>1.800997397029929</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007255616534593933</v>
+        <v>0.006527200159293089</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04884145350992115</v>
+        <v>0.04439796379559927</v>
       </c>
       <c r="G13" t="n">
-        <v>2.396229723348873e-05</v>
+        <v>2.670393995768234e-05</v>
       </c>
     </row>
     <row r="14">
@@ -3142,22 +4050,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3567976396498464</v>
+        <v>0.5993419426980217</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1500203780700774</v>
+        <v>0.1463634796757048</v>
       </c>
       <c r="D14" t="n">
-        <v>1.827212761917431</v>
+        <v>1.821197861109913</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8105444891004082</v>
+        <v>0.6843855491257604</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5908408721755655</v>
+        <v>0.6003534951415475</v>
       </c>
       <c r="G14" t="n">
-        <v>3.02707127963485e-06</v>
+        <v>3.235702129256888e-06</v>
       </c>
     </row>
     <row r="15">
@@ -3167,22 +4075,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9833141087596522</v>
+        <v>0.9884287445834814</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3795808836102673</v>
+        <v>0.3842819767061246</v>
       </c>
       <c r="D15" t="n">
-        <v>1.029755558182068</v>
+        <v>1.032086642380913</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1238390409456895</v>
+        <v>0.1109924621841863</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1424118269040389</v>
+        <v>0.1359450878962396</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004966139921437514</v>
+        <v>0.004814691689637323</v>
       </c>
     </row>
     <row r="16">
@@ -3192,22 +4100,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.39575022859367</v>
+        <v>-18.36621620936795</v>
       </c>
       <c r="C16" t="n">
-        <v>1.464824368729219</v>
+        <v>1.476974751576203</v>
       </c>
       <c r="D16" t="n">
-        <v>1.438491229206193</v>
+        <v>1.418485873728482</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9961855877005513</v>
+        <v>0.9992598488155062</v>
       </c>
       <c r="F16" t="n">
-        <v>3.155109928839173e-08</v>
+        <v>2.271798131229262e-08</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001697790240370482</v>
+        <v>0.001889436139664402</v>
       </c>
     </row>
     <row r="17">
@@ -3217,22 +4125,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-42.79404508142537</v>
+        <v>-54.33650847728047</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9808627168844805</v>
+        <v>0.9872857664893498</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2430333187309482</v>
+        <v>-0.269498648698818</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999929015518</v>
+        <v>0.999999999966613</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01378854522606987</v>
+        <v>0.01321983814166822</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7532241869447934</v>
+        <v>0.7268542736289992</v>
       </c>
     </row>
     <row r="18">
@@ -3242,22 +4150,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.665700799113571</v>
+        <v>2.64162029239539</v>
       </c>
       <c r="C18" t="n">
-        <v>1.306597515290364</v>
+        <v>1.310731729761887</v>
       </c>
       <c r="D18" t="n">
-        <v>1.015913963889871</v>
+        <v>1.011934390620701</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00169823255508134</v>
+        <v>0.001744557726068188</v>
       </c>
       <c r="F18" t="n">
-        <v>3.951136838828605e-06</v>
+        <v>3.546023398555422e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02772327056020825</v>
+        <v>0.02833926942097202</v>
       </c>
     </row>
     <row r="19">
@@ -3267,22 +4175,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-22.84973660527535</v>
+        <v>-33.20300710631762</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5893671596846586</v>
+        <v>0.4745071500228151</v>
       </c>
       <c r="D19" t="n">
-        <v>1.823225834398606</v>
+        <v>1.830250883638886</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998140012583878</v>
+        <v>0.9999988398027537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2250829047565079</v>
+        <v>0.3191673065928908</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002860872936826465</v>
+        <v>0.002308830710132933</v>
       </c>
     </row>
     <row r="20">
@@ -3292,22 +4200,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.303020176662665</v>
+        <v>2.54379672150668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7006515705989591</v>
+        <v>0.7432069105999983</v>
       </c>
       <c r="D20" t="n">
-        <v>2.935401090912674</v>
+        <v>2.915214743277505</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01842235419599062</v>
+        <v>0.05521018777127161</v>
       </c>
       <c r="F20" t="n">
-        <v>0.157052970018021</v>
+        <v>0.1319701359628465</v>
       </c>
       <c r="G20" t="n">
-        <v>1.856541964453199e-06</v>
+        <v>1.755197258522539e-06</v>
       </c>
     </row>
     <row r="21">
@@ -3317,22 +4225,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.81759117710181</v>
+        <v>2.088089273845328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1221615637533729</v>
+        <v>0.2174651374431569</v>
       </c>
       <c r="D21" t="n">
-        <v>1.78414981200651</v>
+        <v>1.768538967387406</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01223167096495202</v>
+        <v>0.0506926429189077</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8276793420807117</v>
+        <v>0.6958461738660686</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005706110365687754</v>
+        <v>0.005520950939769042</v>
       </c>
     </row>
     <row r="22">
@@ -3342,22 +4250,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8584028270842207</v>
+        <v>0.526880558443657</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4839045439786177</v>
+        <v>0.5182823730633335</v>
       </c>
       <c r="D22" t="n">
-        <v>1.299431994946098</v>
+        <v>1.289707711329226</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3133188514541749</v>
+        <v>0.5233040204937685</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04726002082762268</v>
+        <v>0.03266210563863184</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00118961652894839</v>
+        <v>0.001214456557905708</v>
       </c>
     </row>
     <row r="23">
@@ -3367,22 +4275,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.57169528139821</v>
+        <v>11.73089470960878</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5890174692725909</v>
+        <v>0.5615781536703978</v>
       </c>
       <c r="D23" t="n">
-        <v>41.09778537267025</v>
+        <v>13.84493399241333</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999931163086516</v>
+        <v>0.9974854304049674</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4145844020959899</v>
+        <v>0.4356058707568209</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9999848826768684</v>
+        <v>0.9893195883472511</v>
       </c>
     </row>
     <row r="24">
@@ -3392,22 +4300,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23.45184840261074</v>
+        <v>10.65492237318733</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01570511672111269</v>
+        <v>-0.04470324608559391</v>
       </c>
       <c r="D24" t="n">
-        <v>38.40077068885638</v>
+        <v>11.15056395814271</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999934151820801</v>
+        <v>0.9977160692501946</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9835633405622172</v>
+        <v>0.9531402875439901</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9999858747410901</v>
+        <v>0.9913980191835462</v>
       </c>
     </row>
     <row r="25">
@@ -3417,22 +4325,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-24.60889174901924</v>
+        <v>-8.603123370973938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.067241564935849</v>
+        <v>1.039858413890517</v>
       </c>
       <c r="D25" t="n">
-        <v>40.94653971949188</v>
+        <v>13.68525393373008</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999999047817</v>
+        <v>0.9999303948934984</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1664550792599662</v>
+        <v>0.1768512397648911</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9999849383107521</v>
+        <v>0.9894427642161987</v>
       </c>
     </row>
     <row r="26">
@@ -3442,422 +4350,397 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26.97369266795249</v>
+        <v>14.25902556500073</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5141073723813893</v>
+        <v>0.4247189135089206</v>
       </c>
       <c r="D26" t="n">
-        <v>40.95854547400305</v>
+        <v>13.69998642101233</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999924846376517</v>
+        <v>0.9969435165137377</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4443484513371737</v>
+        <v>0.5250142766933237</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9999849338945805</v>
+        <v>0.9894313983416037</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>28.40271469245207</v>
+        <v>14.45031169722311</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2303396622804769</v>
+        <v>0.5570082534436968</v>
       </c>
       <c r="D27" t="n">
-        <v>41.00708229234411</v>
+        <v>13.79101341556672</v>
       </c>
       <c r="E27" t="n">
-        <v>0.99999202003328</v>
+        <v>0.9969025137177036</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7356374284479728</v>
+        <v>0.4096950855605127</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9999849160408991</v>
+        <v>0.989361181543095</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.75813001350255</v>
+        <v>-1.478867930627295</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5607987912929755</v>
+        <v>0.1229583158220524</v>
       </c>
       <c r="D28" t="n">
-        <v>41.05955986400988</v>
+        <v>0.4583835375335477</v>
       </c>
       <c r="E28" t="n">
-        <v>0.99999233460573</v>
+        <v>0.001588081499132088</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4075139590518405</v>
+        <v>0.3255405904280877</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9999848967376592</v>
+        <v>0.007508691651498695</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.575160002519532</v>
+        <v>-0.01947817811635138</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1318658423646474</v>
+        <v>-0.007032976571690799</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4592833492475728</v>
+        <v>-0.0002570901408922983</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000892912535774971</v>
+        <v>0.2834375138569342</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2929886308394752</v>
+        <v>0.2904099089258979</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007459535753606923</v>
+        <v>0.9763215592622846</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.01385462200193309</v>
+        <v>-0.0004713058752009496</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00749036180870366</v>
+        <v>-0.001523878974997082</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0001464327693016143</v>
+        <v>9.171736604450268e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4463256749306945</v>
+        <v>0.0003510922196941413</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2623500428939773</v>
+        <v>2.39496637552488e-101</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9865901076923927</v>
+        <v>0.00274973271354572</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0004686344020479959</v>
+        <v>-2.334383178249385</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.001523421712900062</v>
+        <v>-2.349637896418959</v>
       </c>
       <c r="D31" t="n">
-        <v>9.15605406103139e-05</v>
+        <v>-3.196365225844715</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000446464864263138</v>
+        <v>2.465011038066508e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2.155791936181196e-101</v>
+        <v>1.045547619349372e-22</v>
       </c>
       <c r="G31" t="n">
-        <v>0.002819403754038896</v>
+        <v>1.583722577551009e-34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.357726650606853</v>
+        <v>0.3360655991216085</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.340377116752866</v>
+        <v>0.07000707995915115</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.200848702195366</v>
+        <v>0.1296512115371298</v>
       </c>
       <c r="E32" t="n">
-        <v>1.858728944619519e-05</v>
+        <v>0.02578552206881802</v>
       </c>
       <c r="F32" t="n">
-        <v>1.392018465191047e-22</v>
+        <v>0.1675988198405144</v>
       </c>
       <c r="G32" t="n">
-        <v>1.440056234625624e-34</v>
+        <v>0.04954076200958273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2998480577968788</v>
+        <v>-2.377313485194829e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07508417359411287</v>
+        <v>3.282845258445822e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1288325480657319</v>
+        <v>9.284942295415506e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05108625149638538</v>
+        <v>0.9975690346651114</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1396332382359479</v>
+        <v>0.2295568862724314</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05096004740740066</v>
+        <v>0.008082407855042157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.343827642057508e-05</v>
+        <v>0.2252203181727845</v>
       </c>
       <c r="C34" t="n">
-        <v>3.01896179588146e-05</v>
+        <v>0.2323556154067535</v>
       </c>
       <c r="D34" t="n">
-        <v>9.268299491381078e-05</v>
+        <v>-0.2264201100279679</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7702657394056102</v>
+        <v>0.4856111927375634</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2702073498968136</v>
+        <v>0.0235486513448494</v>
       </c>
       <c r="G34" t="n">
-        <v>0.008339559514799923</v>
+        <v>0.07006906572980869</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2979924848799403</v>
+        <v>0.01484928001571074</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2294089618994464</v>
+        <v>-0.2105215300289503</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2282473799866037</v>
+        <v>0.207512154174282</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3557782729133677</v>
+        <v>0.972579338139513</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02579196240327275</v>
+        <v>0.1167438441508308</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06813733894376317</v>
+        <v>0.2397859162633679</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02167333200987381</v>
+        <v>1.782817184988043e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1962472680485918</v>
+        <v>1.656223192715397e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2087882290345363</v>
+        <v>5.759369964476717e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9601371911674532</v>
+        <v>0.1123119219036334</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1450011248531746</v>
+        <v>0.0002484678144651578</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2369730673365431</v>
+        <v>0.3752733214670702</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.738677556421789e-07</v>
+        <v>-0.01200186123605916</v>
       </c>
       <c r="C37" t="n">
-        <v>1.690595153700991e-07</v>
+        <v>-0.005752580960212966</v>
       </c>
       <c r="D37" t="n">
-        <v>5.741490144699846e-08</v>
+        <v>-0.00885931422601143</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1254798569302764</v>
+        <v>0.4574960584364198</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0001881067598901473</v>
+        <v>0.3052981654669974</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3772989399735214</v>
+        <v>0.238470376310016</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.01592259274683337</v>
+        <v>-0.02053366893625302</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.005291447013199339</v>
+        <v>-0.01407095329201464</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.008936704033592344</v>
+        <v>-0.01884504364106299</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3371433780830088</v>
+        <v>0.3688523614867568</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3470675908090997</v>
+        <v>0.1011573825525313</v>
       </c>
       <c r="G38" t="n">
-        <v>0.235043887447127</v>
+        <v>0.04003764309963766</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.02220526360402031</v>
+        <v>9.020116413665356</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01395485122890766</v>
+        <v>-4.383677233147163</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.01880968128657737</v>
+        <v>-5.110552591005</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3410639543248519</v>
+        <v>0.4116219136051571</v>
       </c>
       <c r="F39" t="n">
-        <v>0.104908154644907</v>
+        <v>0.3407804192290346</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04033025976096789</v>
+        <v>0.4623045708549562</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.964549937497774</v>
+        <v>1.003347281062289</v>
       </c>
       <c r="C40" t="n">
-        <v>-4.109536543139123</v>
+        <v>0.0234896741771995</v>
       </c>
       <c r="D40" t="n">
-        <v>-5.043301182844197</v>
+        <v>-0.1798590383977157</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5305557284228393</v>
+        <v>0.6053690162918188</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3738600486224753</v>
+        <v>0.9687384171896066</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4679795611527492</v>
+        <v>0.8215373411188196</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.250943912206607</v>
+        <v>-2.140781481260658</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02944117747095668</v>
+        <v>-0.2868693364930879</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1629725776052788</v>
+        <v>0.3061007159090514</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5254893273223619</v>
+        <v>0.3422573790737091</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9609014300614438</v>
+        <v>0.7145296339969903</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8382316004388071</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-1.613503405053321</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-0.3653784141826776</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.3257772375353952</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.4821535889344249</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.6424930248549137</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.7652673462625272</v>
+        <v>0.7782542623400174</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +4754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4244,7 +5127,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -4257,7 +5140,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -4270,7 +5153,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -4283,7 +5166,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -4296,7 +5179,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -4309,7 +5192,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -4322,7 +5205,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -4335,7 +5218,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -4348,7 +5231,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -4361,7 +5244,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -4374,7 +5257,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -4387,7 +5270,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -4400,7 +5283,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -4413,7 +5296,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -4426,7 +5309,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -4435,19 +5318,6 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4460,7 +5330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4511,24 +5381,12 @@
           <t>Intercept</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-21.34287097821425</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.14963884309226</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-17.01672342132164</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9993943015841055</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03783666550939065</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9966673546474968</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4536,24 +5394,12 @@
           <t>Trip_Time[T.Daytime Off-Peak]</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.1697172239500476</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2614639458212165</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.5435923388728934</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7452181794374348</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1039432148643813</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01709535305892462</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4561,24 +5407,12 @@
           <t>Trip_Time[T.Evening]</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-178.7297084471201</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.6272869945203522</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-2.138598313546588</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1223085811015325</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.02010857095884569</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4586,24 +5420,12 @@
           <t>Trip_Time[T.Lunch]</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.1560380031537867</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4663056186533646</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.09062590669875061</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8029628088794871</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.01043647008325679</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7084257698095757</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4611,24 +5433,12 @@
           <t>Trip_Time[T.Nighttime Off-Peak]</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.5608038225167841</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.2675933808241269</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-15.74422633250182</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5765353778187592</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6463601404810089</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9888489076615301</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4636,24 +5446,12 @@
           <t>Trip_Time[T.PM Rush]</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.5356693608787026</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2407665903270227</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-0.8206282303616361</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3246780825896671</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.221956907676564</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.01155666770337475</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4661,24 +5459,12 @@
           <t>Season[T.Spring]</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.600724597345651</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9817984384793982</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.1846022909572285</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04785304377222161</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.005485843731623585</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.6720713349654885</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4686,24 +5472,12 @@
           <t>Season[T.Winter]</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.08350382272723533</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.2066657740710998</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.03972842589076858</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.8481537693321227</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.117660854403799</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.8259282384994127</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4711,24 +5485,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Leisure]</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2.315143272344448</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.333955903011712</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.678202513629604</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.03743530669812636</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.885119657029958e-10</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.787241809167098e-06</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4736,24 +5498,12 @@
           <t>Trip_Purpose_Agg[T.Home↔School]</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.6398797293714958</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.195111937781893</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.752489751293594</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6577967134945408</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0003608791839048367</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0001823063405064624</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4761,24 +5511,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Shopping]</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.666712456484549</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7814265190675468</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.661436929417367</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.01903627847898401</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0005022708274389886</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.878527686305687e-05</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4786,24 +5524,12 @@
           <t>Trip_Purpose_Agg[T.Home↔Work]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>3.410541697271081</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5446711471165897</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.420500451362797</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.002548275338714444</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.03029482599400996</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0006803344129911522</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4811,24 +5537,12 @@
           <t>Trip_Purpose_Agg[T.Other]</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>-31.21613626258794</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2460389845672667</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.612636293459874</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9999972697151238</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.380559472207089</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.341878828849966e-05</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4836,24 +5550,12 @@
           <t>Occupation[T.Employed_PartTime]</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1.171232973526553</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2008928017490036</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.006570859964359</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.05437192437670262</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.4466710612852559</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.005066379150339623</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4861,24 +5563,12 @@
           <t>Occupation[T.Home_Partner]</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>-9.52827922297824</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.66090061362561</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.02934957718568</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9705770166822334</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7.596796949347054e-10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.02071132723794732</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4886,24 +5576,12 @@
           <t>Occupation[T.Other]</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-12.46805990061422</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.151880488003523</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.3488767302041075</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9920074829826174</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.009805175098478459</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.6590317131406227</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4911,24 +5589,12 @@
           <t>Occupation[T.Retired]</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>1.494920310029742</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.277374603451775</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7497339884320603</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.07536109008464238</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5.988682385832241e-06</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.08072888907114152</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4936,24 +5602,12 @@
           <t>Occupation[T.Student_3rdLevel]</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>-18.34647374110124</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7164296530537625</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.388782109917462</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9989738718606949</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1329787014743673</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.01830131151754811</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4961,24 +5615,12 @@
           <t>Occupation[T.Student_School]</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>3.552693081595424</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6348077999586097</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.529171060616084</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.01199762986655795</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.205828170924802</v>
-      </c>
-      <c r="G20" t="n">
-        <v>3.203530196319081e-05</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4986,24 +5628,12 @@
           <t>Occupation[T.Trainee]</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>3.07852969990921</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.01583444081212734</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.313578539564142</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.008851294095976426</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9790511392574807</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.06715184965487679</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5011,24 +5641,12 @@
           <t>Occupation[T.Unemployed]</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.9434193487175343</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4969913051088608</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9578380164035258</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.2714994777574158</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0424043713954683</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.01100177313244713</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5036,24 +5654,12 @@
           <t>Education[T.Elementary]</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>15.57508903063027</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9553335749330704</v>
-      </c>
-      <c r="D23" t="n">
-        <v>16.70852147903663</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9995579878990021</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2035649180538807</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9967277139394558</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5061,24 +5667,12 @@
           <t>Education[T.No diploma yet]</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>15.41402797613845</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.3658503398831618</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13.96054121538149</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9995625587189504</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.6438286557193609</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.9972658907635183</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5086,24 +5680,12 @@
           <t>Education[T.Other]</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>-11.18131856561695</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.9908324541813417</v>
-      </c>
-      <c r="D25" t="n">
-        <v>16.78709744965589</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9999962771534807</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2030276698908349</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9967123252997726</v>
-      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5111,424 +5693,207 @@
           <t>Education[T.Secondary]</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>17.70764463084324</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6993919973297377</v>
-      </c>
-      <c r="D26" t="n">
-        <v>16.5717359963337</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9994974672001251</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.3147705150715285</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.9967545025807133</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>18.38596594278275</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.2242441204664021</v>
-      </c>
-      <c r="D27" t="n">
-        <v>16.79406312819249</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9994782168329944</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.7509592456476006</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9967109610954172</v>
-      </c>
+          <t>Education[T.University]</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>17.925474748652</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.4825146793820314</v>
-      </c>
-      <c r="D28" t="n">
-        <v>16.51752110968631</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9994912853071346</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.4911859963119876</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.996765120259373</v>
-      </c>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-1.317126384468658</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1079457297532322</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.258556601431837</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.003353352405407748</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.3955068939077693</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.1296334282654803</v>
-      </c>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.003418978215098256</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.003329350454039599</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.002258853374961362</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.8439616344995613</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.6214931307047964</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.7935025274537886</v>
-      </c>
+          <t>Trip_Distance</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.0004567422756209985</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.001516614422057988</v>
-      </c>
-      <c r="D31" t="n">
-        <v>8.524835193978219e-05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0006064449588280456</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6.248604338199233e-99</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.005061241638837461</v>
-      </c>
+          <t>CarOwnershipHH</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-2.541753782899335</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-2.480142534051893</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-3.402610416565817</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6.689960865210748e-06</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.350992001360721e-22</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.936573885503659e-36</v>
-      </c>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.3005609262040435</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1028892657981881</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1339643233913147</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.0422895587241893</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.04141860622221673</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.04229615312357562</v>
-      </c>
+          <t>UrbPopDensity_origin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-2.769475164066393e-06</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.753799282008303e-05</v>
-      </c>
-      <c r="D34" t="n">
-        <v>7.844175852532511e-05</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.9719896296314731</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.5293303257604842</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.02526596976682371</v>
-      </c>
+          <t>DistSubcenter_origin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.3977402823499087</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.1782723126084383</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-0.1834915851696003</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.2131033958726943</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.09218386530374016</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.1504508480470736</v>
-      </c>
+          <t>DistCenter_origin</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.1325354253698861</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.2257161181032823</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1888280361984244</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.7687471126522335</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.09900242218329945</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.280098006445011</v>
-      </c>
+          <t>UrbBuildDensity_origin</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1.236321585546306e-07</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.662202781483384e-07</v>
-      </c>
-      <c r="D37" t="n">
-        <v>8.113679335596383e-08</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.2633217747746274</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.0002905981847683544</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.2065158103090188</v>
-      </c>
+          <t>IntersecDensity_origin</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.005037127210486161</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.003193983494972205</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.009160149014117526</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.753427924249743</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.5739825126421503</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.2154123177617313</v>
-      </c>
+          <t>street_length_origin</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.01710908399964822</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.01402150248177046</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-0.01851535845689545</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.4674273300860599</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.110924218394578</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.03865600401061675</v>
-      </c>
+          <t>bike_lane_share_origin</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>10.80913052483839</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-2.009608435075664</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-3.330683554659927</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.3545671661700575</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.6655478671017755</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.6273442109610683</v>
-      </c>
+          <t>LU_UrbFab_origin</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1.927376337327039</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.1277774844365925</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.03590487335136498</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.3276817029910414</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8383292915720411</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.9645018611709461</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
           <t>LU_Comm_origin</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0.1254815813080142</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-0.8883381625138521</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.2515120268036542</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.9560353983960347</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.2700401906064686</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.8168986096913735</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5541,7 +5906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5593,22 +5958,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-42.94070490677904</v>
+        <v>-33.4810315488984</v>
       </c>
       <c r="C2" t="n">
-        <v>3.154686454650797</v>
+        <v>3.24217998743357</v>
       </c>
       <c r="D2" t="n">
-        <v>-14.57615233197516</v>
+        <v>-17.97635985601312</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999962561896804</v>
+        <v>0.9999958805687126</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03701367278917631</v>
+        <v>0.0315769232505953</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9928015299742105</v>
+        <v>0.9983986960342381</v>
       </c>
     </row>
     <row r="3">
@@ -5618,22 +5983,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07759159812817797</v>
+        <v>0.04054139514855239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2431321375100224</v>
+        <v>0.2466718626666718</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5245354494372267</v>
+        <v>-0.5107151339771442</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8792279021069896</v>
+        <v>0.9359791168892593</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1176336202264762</v>
+        <v>0.1119416351765863</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01999324311562907</v>
+        <v>0.02314695093932791</v>
       </c>
     </row>
     <row r="4">
@@ -5643,22 +6008,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-17.92558898809558</v>
+        <v>-17.61276027499546</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.46819911432392</v>
+        <v>-0.4594892615498464</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.611025988590609</v>
+        <v>-2.609043868969399</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9981243701928817</v>
+        <v>0.9977714537990411</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2557803403476246</v>
+        <v>0.2612227199803631</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006534581941747016</v>
+        <v>0.006365946781879628</v>
       </c>
     </row>
     <row r="5">
@@ -5668,22 +6033,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2161016873832305</v>
+        <v>0.2607446880426953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3344757869979477</v>
+        <v>0.3296982936001208</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02914754321207883</v>
+        <v>-0.02416894683335981</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7304662800286903</v>
+        <v>0.6753826866968794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05687149363584242</v>
+        <v>0.05997476439966954</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9040474511548429</v>
+        <v>0.9203234178593467</v>
       </c>
     </row>
     <row r="6">
@@ -5693,22 +6058,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9348374994342679</v>
+        <v>0.6745832884471278</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3669277780910216</v>
+        <v>-0.2844263749379547</v>
       </c>
       <c r="D6" t="n">
-        <v>-17.08912518567835</v>
+        <v>-17.45986028664263</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3418302492451338</v>
+        <v>0.4986465545881761</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5263157057201722</v>
+        <v>0.6247883430532826</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9941243394972987</v>
+        <v>0.9950385036933065</v>
       </c>
     </row>
     <row r="7">
@@ -5718,22 +6083,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.793591456166737</v>
+        <v>0.8459797651347085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1525737669578439</v>
+        <v>0.159189499148954</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8901676620702991</v>
+        <v>-0.889153514703906</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1300367569929239</v>
+        <v>0.1046058868797049</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4359887104245366</v>
+        <v>0.4149038394108104</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007119108794752344</v>
+        <v>0.007127867334140094</v>
       </c>
     </row>
     <row r="8">
@@ -5743,22 +6108,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.535561488588341</v>
+        <v>1.463325277882857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6756346400342674</v>
+        <v>0.7110258586498327</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1696514458922133</v>
+        <v>-0.169059637455414</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06671588837175181</v>
+        <v>0.06907507175796192</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04629591485465406</v>
+        <v>0.03555870334110876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6808354573322062</v>
+        <v>0.6822141960084358</v>
       </c>
     </row>
     <row r="9">
@@ -5768,22 +6133,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2712177148078363</v>
+        <v>0.166359588269642</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2000402167507528</v>
+        <v>-0.1968675512452888</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07667450547561895</v>
+        <v>-0.08112836322969899</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5407304257631478</v>
+        <v>0.7042973702079893</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1182446264314493</v>
+        <v>0.1234756516590078</v>
       </c>
       <c r="G9" t="n">
-        <v>0.667811765243026</v>
+        <v>0.6497296014637002</v>
       </c>
     </row>
     <row r="10">
@@ -5793,22 +6158,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.333159574637087</v>
+        <v>2.364714164860003</v>
       </c>
       <c r="C10" t="n">
-        <v>1.435059257409607</v>
+        <v>1.44133283791329</v>
       </c>
       <c r="D10" t="n">
-        <v>1.643987473802368</v>
+        <v>1.623471011808384</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03505946829671926</v>
+        <v>0.03143880293461858</v>
       </c>
       <c r="F10" t="n">
-        <v>7.142877596331436e-12</v>
+        <v>5.361696088774405e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>3.662422899621973e-06</v>
+        <v>4.614698936788288e-06</v>
       </c>
     </row>
     <row r="11">
@@ -5818,22 +6183,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9237796539928891</v>
+        <v>0.8585287013204782</v>
       </c>
       <c r="C11" t="n">
-        <v>1.504774531944849</v>
+        <v>1.525350600624969</v>
       </c>
       <c r="D11" t="n">
-        <v>1.725295240876915</v>
+        <v>1.697284898164104</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5386154348931298</v>
+        <v>0.5644927086346829</v>
       </c>
       <c r="F11" t="n">
-        <v>1.140684382603507e-05</v>
+        <v>8.532558496084545e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002456561897227811</v>
+        <v>0.0002922652755420257</v>
       </c>
     </row>
     <row r="12">
@@ -5843,22 +6208,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.157616875045381</v>
+        <v>2.150998810839754</v>
       </c>
       <c r="C12" t="n">
-        <v>0.761381548912017</v>
+        <v>0.780728817299457</v>
       </c>
       <c r="D12" t="n">
-        <v>1.576261477474338</v>
+        <v>1.560123666806345</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06198167720055915</v>
+        <v>0.06069678994878635</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0005174567122497445</v>
+        <v>0.0003606250118334755</v>
       </c>
       <c r="G12" t="n">
-        <v>3.346687843641878e-05</v>
+        <v>3.96401780708836e-05</v>
       </c>
     </row>
     <row r="13">
@@ -5868,22 +6233,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.595980407530807</v>
+        <v>3.560687310233714</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6775533504192162</v>
+        <v>0.6867796135876436</v>
       </c>
       <c r="D13" t="n">
-        <v>1.421587671252981</v>
+        <v>1.400165589688275</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001549116439288351</v>
+        <v>0.001544356231195554</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005850052043670478</v>
+        <v>0.005013711163067641</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006783819163808453</v>
+        <v>0.0007925755471774611</v>
       </c>
     </row>
     <row r="14">
@@ -5893,22 +6258,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7192498465138683</v>
+        <v>0.7376864033579511</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2738030657741594</v>
+        <v>0.281965950498255</v>
       </c>
       <c r="D14" t="n">
-        <v>1.664175796591767</v>
+        <v>1.649900198455017</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6244874383422856</v>
+        <v>0.6140651252465293</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3102314465656576</v>
+        <v>0.2961363994077105</v>
       </c>
       <c r="G14" t="n">
-        <v>1.712661905887612e-05</v>
+        <v>1.970243136142734e-05</v>
       </c>
     </row>
     <row r="15">
@@ -5918,22 +6283,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.101393695924882</v>
+        <v>1.059150029844213</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3373151326437263</v>
+        <v>0.3498663264713477</v>
       </c>
       <c r="D15" t="n">
-        <v>0.975616009751836</v>
+        <v>0.9761720665130907</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07529836163244369</v>
+        <v>0.07998485396932792</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1814187410319824</v>
+        <v>0.1637859531140708</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007002772316120494</v>
+        <v>0.006876072329611418</v>
       </c>
     </row>
     <row r="16">
@@ -5943,22 +6308,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-22.01386090669132</v>
+        <v>-14.52684794670161</v>
       </c>
       <c r="C16" t="n">
-        <v>1.612619932097527</v>
+        <v>1.619310977776554</v>
       </c>
       <c r="D16" t="n">
-        <v>1.059036318491288</v>
+        <v>1.030525893921141</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999881655340518</v>
+        <v>0.9965583189587671</v>
       </c>
       <c r="F16" t="n">
-        <v>1.878115082633942e-09</v>
+        <v>1.448094742706935e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02126848675789163</v>
+        <v>0.02474145728619105</v>
       </c>
     </row>
     <row r="17">
@@ -5968,22 +6333,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-13.4858785356069</v>
+        <v>-3.437328013757888</v>
       </c>
       <c r="C17" t="n">
-        <v>0.600031863614452</v>
+        <v>0.6273540352766397</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.722564038951095</v>
+        <v>-0.7515066155177235</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9955700408190403</v>
+        <v>0.7940216026132609</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1431271129999491</v>
+        <v>0.1265064538352272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3921574691913523</v>
+        <v>0.3735498274465039</v>
       </c>
     </row>
     <row r="18">
@@ -5993,22 +6358,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.334269866956387</v>
+        <v>2.261465366780853</v>
       </c>
       <c r="C18" t="n">
-        <v>1.257877341627109</v>
+        <v>1.251634195014904</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9784922037604876</v>
+        <v>0.9769958878057389</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006582529493257973</v>
+        <v>0.007634599758383992</v>
       </c>
       <c r="F18" t="n">
-        <v>5.199540128773305e-06</v>
+        <v>5.441734398181514e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02735846101973649</v>
+        <v>0.02759861985940677</v>
       </c>
     </row>
     <row r="19">
@@ -6018,22 +6383,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-24.559760881767</v>
+        <v>-32.18842720455775</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6265667979782495</v>
+        <v>0.4779458048802853</v>
       </c>
       <c r="D19" t="n">
-        <v>1.468842302708753</v>
+        <v>1.530745120340238</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999371853227649</v>
+        <v>0.9999985732724854</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2132615109310777</v>
+        <v>0.3325353458299742</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0227200197326266</v>
+        <v>0.01562939959913133</v>
       </c>
     </row>
     <row r="20">
@@ -6043,22 +6408,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.575428078526512</v>
+        <v>2.868649743079091</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4949289943606849</v>
+        <v>0.5548910294026993</v>
       </c>
       <c r="D20" t="n">
-        <v>2.555302760688927</v>
+        <v>2.514143183410962</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01829256043225374</v>
+        <v>0.05030966906188394</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3292595371529194</v>
+        <v>0.2721169971818125</v>
       </c>
       <c r="G20" t="n">
-        <v>4.579859087311574e-05</v>
+        <v>5.104062771348271e-05</v>
       </c>
     </row>
     <row r="21">
@@ -6068,22 +6433,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.17513061844433</v>
+        <v>2.585472851894044</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2669481141759528</v>
+        <v>-0.1566766881180536</v>
       </c>
       <c r="D21" t="n">
-        <v>1.235598852778262</v>
+        <v>1.190580238533745</v>
       </c>
       <c r="E21" t="n">
-        <v>0.006084436412514044</v>
+        <v>0.02020916501654597</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6478741206396832</v>
+        <v>0.7871701809884324</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06475841263660925</v>
+        <v>0.07210365322696279</v>
       </c>
     </row>
     <row r="22">
@@ -6093,22 +6458,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.224579924417498</v>
+        <v>0.8393631412294191</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5640500985322512</v>
+        <v>0.5938891046129147</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9049036614419583</v>
+        <v>0.8844549210842515</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1698496366248674</v>
+        <v>0.3314419567413665</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02011340595432915</v>
+        <v>0.01397519284156166</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01935132870838628</v>
+        <v>0.02163348508329245</v>
       </c>
     </row>
     <row r="23">
@@ -6118,22 +6483,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-11.85777967546558</v>
+        <v>-10.05383040060251</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8863037600112562</v>
+        <v>0.8431386575849444</v>
       </c>
       <c r="D23" t="n">
-        <v>14.54975190253451</v>
+        <v>17.97162087002481</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999996748297</v>
+        <v>0.9999999417962185</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2284669724289432</v>
+        <v>0.2503725777581928</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9928145635103811</v>
+        <v>0.9983991181453775</v>
       </c>
     </row>
     <row r="24">
@@ -6143,22 +6508,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36.08511302547421</v>
+        <v>27.2441446237091</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1939028579192251</v>
+        <v>0.1518367640642934</v>
       </c>
       <c r="D24" t="n">
-        <v>12.03114704414099</v>
+        <v>15.45940859105647</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999996853898439</v>
+        <v>0.9999966479411719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8025383977638368</v>
+        <v>0.8442994858300896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9940583584344752</v>
+        <v>0.9986229015637287</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6533,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23.32344293010053</v>
+        <v>-8.160055525111757</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9285787925522417</v>
+        <v>0.8853430731650584</v>
       </c>
       <c r="D25" t="n">
-        <v>14.45574735417813</v>
+        <v>17.86893331196367</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999979665321451</v>
+        <v>0.9999999608774391</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2281430663706698</v>
+        <v>0.2492624980711282</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9928609868922562</v>
+        <v>0.9984082653702409</v>
       </c>
     </row>
     <row r="26">
@@ -6193,422 +6558,397 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>38.36967816178101</v>
+        <v>29.52665199891014</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7258847668445346</v>
+        <v>0.6165371844065334</v>
       </c>
       <c r="D26" t="n">
-        <v>14.59864547034485</v>
+        <v>18.02819585708552</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999966547172899</v>
+        <v>0.9999963671065634</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2895530704701585</v>
+        <v>0.3650424842742229</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9927904177955643</v>
+        <v>0.9983940785461298</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39.57928720313713</v>
+        <v>29.57749101911073</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3821717194496313</v>
+        <v>0.5995133944216652</v>
       </c>
       <c r="D27" t="n">
-        <v>14.76202386006385</v>
+        <v>18.0649344982366</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9999965492568114</v>
+        <v>0.9999963608511242</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5824665217065992</v>
+        <v>0.3834960893356832</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9927097352201862</v>
+        <v>0.9983908059343463</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.91087856246024</v>
+        <v>-1.329683645127364</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6080212851238143</v>
+        <v>0.1442431859310734</v>
       </c>
       <c r="D28" t="n">
-        <v>14.673441078734</v>
+        <v>0.4638485441254173</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9999966075324201</v>
+        <v>0.002538980600577862</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3782007268461757</v>
+        <v>0.244295509547183</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9927534808291204</v>
+        <v>0.006159590668502947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.384907818788122</v>
+        <v>-0.001431190268730037</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1549743183579581</v>
+        <v>-0.002571619895131053</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4626633805873707</v>
+        <v>-0.00426186119919665</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001896012309586685</v>
+        <v>0.9353720825937384</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2121574144439754</v>
+        <v>0.6974038168205525</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006354102013106869</v>
+        <v>0.6260157049729306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002009306227555861</v>
+        <v>-0.0004782630923967543</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.003249079142614623</v>
+        <v>-0.001505653001430988</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.003792578783821614</v>
+        <v>9.219122419387956e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.910233276375039</v>
+        <v>0.0002546133286989672</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6249611739019321</v>
+        <v>2.483712874698225e-100</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6660294366638375</v>
+        <v>0.002215833392132983</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0004592942166364523</v>
+        <v>-2.408275188234916</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.001507252905766565</v>
+        <v>-2.43963771239197</v>
       </c>
       <c r="D31" t="n">
-        <v>9.253421641061165e-05</v>
+        <v>-3.382267760286458</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0004959583811266473</v>
+        <v>1.381518141105539e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>1.846822990185871e-100</v>
+        <v>1.030744976541862e-22</v>
       </c>
       <c r="G31" t="n">
-        <v>0.002118790758198486</v>
+        <v>1.307700059190629e-36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-2.432998707403573</v>
+        <v>0.4031630779012753</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.426096096465571</v>
+        <v>0.08646036091053597</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.393079877951148</v>
+        <v>0.1290715497636291</v>
       </c>
       <c r="E32" t="n">
-        <v>1.021408488403513e-05</v>
+        <v>0.0058258929104289</v>
       </c>
       <c r="F32" t="n">
-        <v>1.663116160334118e-22</v>
+        <v>0.07773859670726506</v>
       </c>
       <c r="G32" t="n">
-        <v>1.034550930882037e-36</v>
+        <v>0.05303523888706718</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3755263713065145</v>
+        <v>-3.051196873383377e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09419589806919103</v>
+        <v>1.85640099578106e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1281027770229429</v>
+        <v>6.468232645721887e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0119724444318968</v>
+        <v>0.6961367818870587</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05529267780307823</v>
+        <v>0.4942627480392966</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05505973672095066</v>
+        <v>0.06285276910828187</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.668885702249392e-05</v>
+        <v>0.2871231700641839</v>
       </c>
       <c r="C34" t="n">
-        <v>1.559256523495611e-05</v>
+        <v>0.1180756762061583</v>
       </c>
       <c r="D34" t="n">
-        <v>6.584847077385024e-05</v>
+        <v>-0.2203134822742076</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8336119422726733</v>
+        <v>0.3537338046386735</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5666172101894972</v>
+        <v>0.2449094795565013</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05887466506774911</v>
+        <v>0.07926663010054655</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3229942662442431</v>
+        <v>0.2482636324812061</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1140044757126163</v>
+        <v>-0.2571535484943493</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.220265011689023</v>
+        <v>0.1899695730121069</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2992489077377657</v>
+        <v>0.5815041014412814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2628268405071991</v>
+        <v>0.05209124026067239</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07944436177944773</v>
+        <v>0.2757115759628687</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2365484414720744</v>
+        <v>1.024666193604816e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2455013998850263</v>
+        <v>1.610732106262622e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1856438214235228</v>
+        <v>1.057846306871201e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6019797091536412</v>
+        <v>0.3542217740939687</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06462686571735277</v>
+        <v>0.0003941592637032587</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2867823423204521</v>
+        <v>0.09971757233541746</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.021586434767375e-07</v>
+        <v>0.00539568682209923</v>
       </c>
       <c r="C37" t="n">
-        <v>1.632999322410449e-07</v>
+        <v>-0.004264376823498788</v>
       </c>
       <c r="D37" t="n">
-        <v>1.043133786587036e-07</v>
+        <v>-0.01083109342267106</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3579789774982777</v>
+        <v>0.7360560450742286</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0003240447070299916</v>
+        <v>0.443007440006124</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1046066321777123</v>
+        <v>0.1585977558509165</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.002541124798426629</v>
+        <v>-0.01751276733186655</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00365682719563784</v>
+        <v>-0.01405575328443119</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01128900319978934</v>
+        <v>-0.02131244548224381</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8759748130549239</v>
+        <v>0.4740772934292367</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5117657218816896</v>
+        <v>0.1006610229097556</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1430730969757461</v>
+        <v>0.02651498141405983</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.01839058824050293</v>
+        <v>13.61431402879225</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.01379913844913864</v>
+        <v>0.4311315734594499</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.02148810135934753</v>
+        <v>-0.4360835153388617</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4652730159222491</v>
+        <v>0.2135822815123342</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1079248948668808</v>
+        <v>0.9244095673608135</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02551007837241762</v>
+        <v>0.9512661642345166</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.61141976018414</v>
+        <v>1.274916705789697</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9433819931592057</v>
+        <v>-0.1111539119613709</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3287923459547433</v>
+        <v>0.01347972419887724</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2996663831126792</v>
+        <v>0.5152129904994263</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8362376537223378</v>
+        <v>0.8548494597467544</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9631231261700819</v>
+        <v>0.9868395559697269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.522966099841873</v>
+        <v>-1.31600909376855</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1124792681097911</v>
+        <v>-0.8088619262997655</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04039523098140557</v>
+        <v>-0.1501830610063142</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4399372564483527</v>
+        <v>0.5522092439893291</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8534891963110887</v>
+        <v>0.3030025866789479</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9605799937802955</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-0.9286905169363501</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-0.8918748034578348</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-0.1061679301063603</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.6819986337297808</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.2570845512317564</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.9225556702869999</v>
+        <v>0.8905010873023913</v>
       </c>
     </row>
   </sheetData>
@@ -6622,7 +6962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6995,7 +7335,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -7008,7 +7348,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -7021,7 +7361,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -7034,7 +7374,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Trip_Distance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -7047,7 +7387,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trip_Distance</t>
+          <t>CarOwnershipHH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -7060,7 +7400,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CarAvailable</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -7073,7 +7413,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>UrbPopDensity_origin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -7086,7 +7426,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UrbPopDensity_origin</t>
+          <t>DistSubcenter_origin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -7099,7 +7439,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DistSubcenter_origin</t>
+          <t>DistCenter_origin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -7112,7 +7452,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DistCenter_origin</t>
+          <t>UrbBuildDensity_origin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -7125,7 +7465,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_origin</t>
+          <t>IntersecDensity_origin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -7138,7 +7478,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IntersecDensity_origin</t>
+          <t>street_length_origin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -7151,7 +7491,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>street_length_origin</t>
+          <t>bike_lane_share_origin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -7164,7 +7504,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bike_lane_share_origin</t>
+          <t>LU_UrbFab_origin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -7177,7 +7517,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LU_UrbFab_origin</t>
+          <t>LU_Comm_origin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -7187,19 +7527,6 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>LU_Comm_origin</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
